--- a/biology/Botanique/Square_Wenzler/Square_Wenzler.xlsx
+++ b/biology/Botanique/Square_Wenzler/Square_Wenzler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Saint François-Xavier est un parc public de Colmar en Alsace. 
@@ -513,9 +525,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est situé dans le quartier saint-Joseph[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est situé dans le quartier saint-Joseph.
 On y accède par le 8 rue Victor-Huen.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square se situe sur la pelouse d'un ancien terrain de football[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square se situe sur la pelouse d'un ancien terrain de football.
 En 2019, le parc a été fermé puis vendu par le propriétaire (association du Cercle Saint Joseph) à Boulle qui a construit un ensemble immobilier important.
 La grande majorité des arbres ont été coupés ainsi qu'une petite maison, qui abritait une salle de fête et un club d'informatique, a été démolie pour faire place au chantier de 2020 à fin 2021.
 Ce sont ainsi une cinquantaine de logements qui ont été construits en dépit du caractère plutôt résidentiel du voisinage.
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
